--- a/รายการจัดส่งซีเรียสซีเรียล-2021-12-06.xlsx
+++ b/รายการจัดส่งซีเรียสซีเรียล-2021-12-06.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>เลขที่</t>
   </si>
@@ -32,6 +32,42 @@
   </si>
   <si>
     <t>จำนวน(กล่อง)</t>
+  </si>
+  <si>
+    <t>2021120511592854</t>
+  </si>
+  <si>
+    <t>2021-12-06T07:00:25.295+07:00</t>
+  </si>
+  <si>
+    <t> น่งสาว ปิยฉัตร รัตนสาครชัย</t>
+  </si>
+  <si>
+    <t>0854849019</t>
+  </si>
+  <si>
+    <t>Por Piya</t>
+  </si>
+  <si>
+    <t>19/143 หมู่23, ซอยอินทราวาส 11 อินทราวาส ตลิ่งชัน เขตตลิ่งชัน กรุงเทพมหานคร 10170</t>
+  </si>
+  <si>
+    <t>2021120511412794</t>
+  </si>
+  <si>
+    <t>2021-12-06T06:46:02.636+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว ศศิร์อร วิชัย</t>
+  </si>
+  <si>
+    <t>0895699799</t>
+  </si>
+  <si>
+    <t>ปุ๊ (phone)</t>
+  </si>
+  <si>
+    <t>เลขที่ 180/764 หมู่บ้านเดอะคิทท์ติวานนท์ หมู่ 5  ติวานนท์ ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
   </si>
 </sst>
 </file>
@@ -71,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -100,6 +136,52 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/รายการจัดส่งซีเรียสซีเรียล-2021-12-06.xlsx
+++ b/รายการจัดส่งซีเรียสซีเรียล-2021-12-06.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>เลขที่</t>
   </si>
@@ -34,6 +34,219 @@
     <t>จำนวน(กล่อง)</t>
   </si>
   <si>
+    <t>2021120612470747</t>
+  </si>
+  <si>
+    <t>2021-12-06T19:49:03.193+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว ฌาณิศา ฤกษ์ประสพผล</t>
+  </si>
+  <si>
+    <t>0868967559</t>
+  </si>
+  <si>
+    <t>Chanisa</t>
+  </si>
+  <si>
+    <t>8 สรณคมน์ 20 แยก1 สีกัน เขตดอนเมือง กรุงเทพมหานคร 10210</t>
+  </si>
+  <si>
+    <t>2021120608320128</t>
+  </si>
+  <si>
+    <t>2021-12-06T15:33:52.396+07:00</t>
+  </si>
+  <si>
+    <t> นาย อนุรักษ์ ศราภัยวานิช</t>
+  </si>
+  <si>
+    <t>0835161116</t>
+  </si>
+  <si>
+    <t>Honeyamhome</t>
+  </si>
+  <si>
+    <t>บ.สยามฟูรูกาวา จก. 33 ม.4  หนองปลากระดี่ บัวลอย อำเภอหนองแค สระบุรี 18140</t>
+  </si>
+  <si>
+    <t>2021120604351287</t>
+  </si>
+  <si>
+    <t>2021-12-06T11:37:27.467+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว สุภาวดี ทองปิว</t>
+  </si>
+  <si>
+    <t>0853561769</t>
+  </si>
+  <si>
+    <t>Supawadi Thongpiu</t>
+  </si>
+  <si>
+    <t>โรงเรียนปัญญาประทีป 162 ม.12   ปากช่อง อำเภอปากช่อง นครราชสีมา 30130</t>
+  </si>
+  <si>
+    <t>2021120603010060</t>
+  </si>
+  <si>
+    <t>2021-12-06T10:03:01.567+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว วรรณา ฉายวัฒนะ</t>
+  </si>
+  <si>
+    <t>0871478496</t>
+  </si>
+  <si>
+    <t>Piraya.Ⓜ️</t>
+  </si>
+  <si>
+    <t>92 หมู่ 8 - ดงพระราม อำเภอเมืองปราจีนบุรี ปราจีนบุรี 25000</t>
+  </si>
+  <si>
+    <t>2021120602454227</t>
+  </si>
+  <si>
+    <t>2021-12-06T09:52:04.464+07:00</t>
+  </si>
+  <si>
+    <t> นส. พรรณทิพา ฉัตรชาตรี</t>
+  </si>
+  <si>
+    <t>0992191311</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>หอพักพัฒนาคณาจารย์   รพ. จุฬาลงกรณ์  ห้อง 2306 พระราม 4 วังใหม่ ปทุมวัน กรุงเทพ 10330</t>
+  </si>
+  <si>
+    <t>2021120602432418</t>
+  </si>
+  <si>
+    <t>2021-12-06T09:45:40.602+07:00</t>
+  </si>
+  <si>
+    <t> นส พนมพร เฉลิมชาติ</t>
+  </si>
+  <si>
+    <t>0885947770</t>
+  </si>
+  <si>
+    <t>noi</t>
+  </si>
+  <si>
+    <t>271/4 ซอย 5 วารีราชเดช ในเมือง อำเภอเมืองยโสธร ยโสธร 35000</t>
+  </si>
+  <si>
+    <t>2021120602194795</t>
+  </si>
+  <si>
+    <t>2021-12-06T09:22:33.717+07:00</t>
+  </si>
+  <si>
+    <t> นาง สมศรี หย่างอารี</t>
+  </si>
+  <si>
+    <t>0817163335</t>
+  </si>
+  <si>
+    <t>Somsri</t>
+  </si>
+  <si>
+    <t>เลขที่ 140/37 หมู่ 4   หนองผึ้ง สารภี เชียงใหม่ 50140</t>
+  </si>
+  <si>
+    <t>2021120602041774</t>
+  </si>
+  <si>
+    <t>2021-12-06T16:14:37.928+07:00</t>
+  </si>
+  <si>
+    <t> นาย กฤษณะ อักษรนิตย์</t>
+  </si>
+  <si>
+    <t>0816911877</t>
+  </si>
+  <si>
+    <t>Kritsana</t>
+  </si>
+  <si>
+    <t>8/23 หมู่บ้าน ลักกี้โฮม พัฒนาการ พัฒนาการ-คูขวาง ในเมือง อำเภอเมืองนครศรีธรรมราช นครศรีธรรมราช 80000</t>
+  </si>
+  <si>
+    <t>2021120601283780</t>
+  </si>
+  <si>
+    <t>2021-12-06T08:30:44.994+07:00</t>
+  </si>
+  <si>
+    <t> นาง สุมาลี หิรัญพานิช</t>
+  </si>
+  <si>
+    <t>0818145889</t>
+  </si>
+  <si>
+    <t>Keng</t>
+  </si>
+  <si>
+    <t>53/17 หมู่บ้านยูนิวิลล่า 2 ซอยศุภราช 1 พหลโยธิน สามเสนใน เขตพญาไท กรุงเทพมหานคร 10400</t>
+  </si>
+  <si>
+    <t>2021120612523531</t>
+  </si>
+  <si>
+    <t>2021-12-06T07:55:04.714+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว สายฝน เกิดเจริญ</t>
+  </si>
+  <si>
+    <t>0812811224</t>
+  </si>
+  <si>
+    <t>สายฝน</t>
+  </si>
+  <si>
+    <t>โรงเรียนบ้านวังดิน หมู่6 - วังดิน เมือง อุตรดิตถ์ 53000</t>
+  </si>
+  <si>
+    <t>2021120612432140</t>
+  </si>
+  <si>
+    <t>2021-12-06T07:44:15.181+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว วรกานต์ เจียมจิตรักษ์</t>
+  </si>
+  <si>
+    <t>0891111808</t>
+  </si>
+  <si>
+    <t>5/99 หมู่บ้านดิเอ็กซ์คลูซีฟ ซอยทานสัมฤทธิ์ 27 ติวานนท์ 38 ท่าทราย เมืองนนทบุรี นนทบุรี 11000</t>
+  </si>
+  <si>
+    <t>2021120612202578</t>
+  </si>
+  <si>
+    <t>2021-12-06T07:24:10.825+07:00</t>
+  </si>
+  <si>
+    <t> นาง ดวงตา เงินอ้น</t>
+  </si>
+  <si>
+    <t>0897719844</t>
+  </si>
+  <si>
+    <t>คนอยู่มานาน</t>
+  </si>
+  <si>
+    <t>259 ม.6 ซ.เอก บ้านใหม่หนองหอย 2069 สันติสุข ดอยหล่อ เชียงใหม่ 50160</t>
+  </si>
+  <si>
     <t>2021120511592854</t>
   </si>
   <si>
@@ -68,6 +281,24 @@
   </si>
   <si>
     <t>เลขที่ 180/764 หมู่บ้านเดอะคิทท์ติวานนท์ หมู่ 5  ติวานนท์ ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
+  </si>
+  <si>
+    <t>2021111410513597</t>
+  </si>
+  <si>
+    <t>2021-12-06T14:05:55.434+07:00</t>
+  </si>
+  <si>
+    <t> นส. สำเนียง เอี่ยมอ่อน</t>
+  </si>
+  <si>
+    <t>0816221236</t>
+  </si>
+  <si>
+    <t>ส.น.รู้เท่าที่รู้พอ</t>
+  </si>
+  <si>
+    <t>บ้านเลขที่9(29เดิม) ซ.คุ้มเกล้า31 คุ้มเกล้า ลำปลาทิว เขตลาดกระบัง กรุงเทพมหานคร 10520</t>
   </si>
 </sst>
 </file>
@@ -107,7 +338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -156,7 +387,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -179,6 +410,305 @@
         <v>18</v>
       </c>
       <c r="G3" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>2</v>
       </c>
     </row>
